--- a/Granice - Binary.xlsx
+++ b/Granice - Binary.xlsx
@@ -112,132 +112,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="49">
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>Pln-zach terytorium</t>
-  </si>
-  <si>
-    <t>Grenlandia</t>
-  </si>
-  <si>
-    <t>Wschodnie Stany</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ojk</t>
-  </si>
-  <si>
-    <t>Alberta</t>
-  </si>
-  <si>
-    <t>Ameryka Centralna</t>
-  </si>
-  <si>
-    <t>Hawaje</t>
-  </si>
-  <si>
-    <t>Ontario</t>
-  </si>
-  <si>
-    <t>Quebek</t>
-  </si>
-  <si>
-    <t>Zachodnie Stany</t>
-  </si>
-  <si>
-    <t>Falklandy</t>
-  </si>
-  <si>
-    <t>Madagaskar</t>
-  </si>
-  <si>
-    <t>Kamczatka</t>
-  </si>
-  <si>
-    <t>Swalbard</t>
-  </si>
-  <si>
-    <t>Poludniowa Europa</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
   <si>
     <t>Granice</t>
-  </si>
-  <si>
-    <t>Wenezuala</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Brazylia</t>
-  </si>
-  <si>
-    <t>Argentyna</t>
-  </si>
-  <si>
-    <t>Afryka pln</t>
-  </si>
-  <si>
-    <t>Egipt</t>
-  </si>
-  <si>
-    <t>Wschodnia Afryka</t>
-  </si>
-  <si>
-    <t>Kongo</t>
-  </si>
-  <si>
-    <t>Afryka pld</t>
-  </si>
-  <si>
-    <t>Bliski wschod</t>
-  </si>
-  <si>
-    <t>Indie</t>
-  </si>
-  <si>
-    <t>Syjam</t>
-  </si>
-  <si>
-    <t>Chiny</t>
-  </si>
-  <si>
-    <t>Afganistan</t>
-  </si>
-  <si>
-    <t>Ural</t>
-  </si>
-  <si>
-    <t>Syberia</t>
-  </si>
-  <si>
-    <t>Jakuck</t>
-  </si>
-  <si>
-    <t>Irkuck</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Japonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Islandia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Skandynawia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wielka Brytania</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Polnocna Europa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ukraina</t>
   </si>
   <si>
     <t>Zachodnia Europa</t>
@@ -356,23 +233,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_4" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_4" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -640,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,103 +546,103 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
+      <c r="F2" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
+      <c r="G3" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>2</v>
+      <c r="G4" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1">
         <v>9</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>37</v>
+      <c r="F5" s="5">
+        <v>34</v>
+      </c>
+      <c r="G5" s="5">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
         <v>8</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1">
         <v>10</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="1">
         <v>6</v>
       </c>
     </row>
@@ -773,19 +650,19 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="1">
         <v>8</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="1">
         <v>10</v>
       </c>
     </row>
@@ -793,56 +670,56 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="1">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
         <v>10</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>17</v>
+      <c r="F8" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="1">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="1">
         <v>10</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>36</v>
+      <c r="E9" s="4">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="1">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1">
         <v>4</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="1">
         <v>10</v>
       </c>
     </row>
@@ -850,42 +727,42 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="1">
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
         <v>4</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="1">
         <v>10</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
         <v>7</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="1">
         <v>6</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="1">
         <v>5</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="1">
         <v>8</v>
       </c>
     </row>
@@ -893,16 +770,16 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="C13" s="2">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1">
         <v>6</v>
       </c>
     </row>
@@ -910,428 +787,428 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>20</v>
+      <c r="C14" s="2">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>21</v>
+      <c r="C15" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>11</v>
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2">
+        <v>15</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="2">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2">
+        <v>14</v>
+      </c>
+      <c r="E17" s="3">
         <v>20</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="C18" s="3">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3">
         <v>19</v>
       </c>
+      <c r="G18" s="2">
+        <v>13</v>
+      </c>
       <c r="H18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="3">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3">
+        <v>18</v>
+      </c>
+      <c r="F19" s="4">
         <v>22</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>15</v>
+      <c r="G19" s="5">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="3">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3">
+        <v>17</v>
+      </c>
+      <c r="E20" s="3">
+        <v>16</v>
+      </c>
+      <c r="F20" s="3">
+        <v>19</v>
+      </c>
+      <c r="G20" s="3">
+        <v>20</v>
+      </c>
+      <c r="H20" s="3">
+        <v>21</v>
+      </c>
+      <c r="I20" s="4">
         <v>22</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>25</v>
+      <c r="C21" s="3">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3">
+        <v>18</v>
+      </c>
+      <c r="F21" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>11</v>
+      <c r="C22" s="3">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3">
+        <v>19</v>
+      </c>
+      <c r="E22" s="3">
+        <v>18</v>
+      </c>
+      <c r="F22" s="3">
+        <v>21</v>
+      </c>
+      <c r="G22" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>25</v>
+      <c r="C23" s="3">
+        <v>21</v>
+      </c>
+      <c r="D23" s="3">
+        <v>18</v>
+      </c>
+      <c r="E23" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="4">
+        <v>22</v>
+      </c>
+      <c r="D24" s="3">
+        <v>18</v>
+      </c>
+      <c r="E24" s="3">
+        <v>17</v>
+      </c>
+      <c r="F24" s="5">
+        <v>40</v>
+      </c>
+      <c r="G24" s="5">
+        <v>39</v>
+      </c>
+      <c r="H24" s="4">
         <v>26</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="I24" s="4">
         <v>23</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>23</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="4">
+        <v>23</v>
+      </c>
+      <c r="D25" s="4">
+        <v>22</v>
+      </c>
+      <c r="E25" s="4">
         <v>26</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>28</v>
+      <c r="F25" s="4">
+        <v>25</v>
+      </c>
+      <c r="G25" s="4">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>29</v>
+      <c r="C26" s="4">
+        <v>24</v>
+      </c>
+      <c r="D26" s="4">
+        <v>23</v>
+      </c>
+      <c r="E26" s="4">
+        <v>25</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>25</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="4">
+        <v>25</v>
+      </c>
+      <c r="D27" s="4">
+        <v>24</v>
+      </c>
+      <c r="E27" s="4">
+        <v>23</v>
+      </c>
+      <c r="F27" s="4">
+        <v>26</v>
+      </c>
+      <c r="G27" s="4">
+        <v>27</v>
+      </c>
+      <c r="H27" s="4">
         <v>28</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="I27" s="4">
         <v>31</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>26</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="4">
         <v>26</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="4">
+        <v>22</v>
+      </c>
+      <c r="E28" s="4">
+        <v>23</v>
+      </c>
+      <c r="F28" s="4">
+        <v>25</v>
+      </c>
+      <c r="G28" s="4">
         <v>27</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>41</v>
+      <c r="H28" s="5">
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>27</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>41</v>
+      <c r="C29" s="4">
+        <v>27</v>
+      </c>
+      <c r="D29" s="4">
+        <v>26</v>
+      </c>
+      <c r="E29" s="4">
+        <v>25</v>
+      </c>
+      <c r="F29" s="4">
+        <v>28</v>
+      </c>
+      <c r="G29" s="5">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>28</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="4">
+        <v>28</v>
+      </c>
+      <c r="D30" s="4">
+        <v>27</v>
+      </c>
+      <c r="E30" s="4">
+        <v>25</v>
+      </c>
+      <c r="F30" s="4">
         <v>31</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="G30" s="4">
+        <v>30</v>
+      </c>
+      <c r="H30" s="4">
         <v>29</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>29</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="4">
+        <v>29</v>
+      </c>
+      <c r="D31" s="4">
+        <v>28</v>
+      </c>
+      <c r="E31" s="4">
+        <v>30</v>
+      </c>
+      <c r="F31" s="4">
         <v>33</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>30</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="4">
+        <v>30</v>
+      </c>
+      <c r="D32" s="4">
+        <v>29</v>
+      </c>
+      <c r="E32" s="4">
+        <v>28</v>
+      </c>
+      <c r="F32" s="4">
+        <v>31</v>
+      </c>
+      <c r="G32" s="4">
         <v>33</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>31</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="C33" s="4">
+        <v>31</v>
+      </c>
+      <c r="D33" s="4">
+        <v>25</v>
+      </c>
+      <c r="E33" s="4">
+        <v>28</v>
+      </c>
+      <c r="F33" s="4">
+        <v>30</v>
+      </c>
+      <c r="G33" s="4">
+        <v>33</v>
+      </c>
+      <c r="H33" s="4">
         <v>32</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>32</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>13</v>
+      <c r="C34" s="4">
+        <v>32</v>
+      </c>
+      <c r="D34" s="4">
+        <v>31</v>
+      </c>
+      <c r="E34" s="4">
+        <v>33</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1339,22 +1216,22 @@
       <c r="B35">
         <v>33</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="4">
         <v>33</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="D35" s="4">
+        <v>29</v>
+      </c>
+      <c r="E35" s="4">
+        <v>30</v>
+      </c>
+      <c r="F35" s="4">
+        <v>31</v>
+      </c>
+      <c r="G35" s="4">
+        <v>32</v>
+      </c>
+      <c r="H35" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1362,149 +1239,149 @@
       <c r="B36">
         <v>34</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>2</v>
+      <c r="C36" s="5">
+        <v>34</v>
+      </c>
+      <c r="D36" s="5">
+        <v>36</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>35</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="5">
+        <v>35</v>
+      </c>
+      <c r="D37" s="5">
+        <v>36</v>
+      </c>
+      <c r="E37" s="5">
         <v>37</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>2</v>
+      <c r="F37" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>36</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="5">
+        <v>36</v>
+      </c>
+      <c r="D38" s="5">
+        <v>34</v>
+      </c>
+      <c r="E38" s="5">
+        <v>35</v>
+      </c>
+      <c r="F38" s="5">
+        <v>37</v>
+      </c>
+      <c r="G38" s="5">
         <v>38</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="5" t="s">
+      <c r="H38" s="5">
         <v>39</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>37</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="C39" s="5">
         <v>37</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="D39" s="5">
+        <v>35</v>
+      </c>
+      <c r="E39" s="5">
+        <v>36</v>
+      </c>
+      <c r="F39" s="5">
         <v>38</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="G39" s="5" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>38</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="5">
+        <v>38</v>
+      </c>
+      <c r="D40" s="5">
+        <v>37</v>
+      </c>
+      <c r="E40" s="5">
+        <v>36</v>
+      </c>
+      <c r="F40" s="5">
+        <v>39</v>
+      </c>
+      <c r="G40" s="5">
         <v>40</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="H40" s="5" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>39</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="C41" s="5">
+        <v>39</v>
+      </c>
+      <c r="D41" s="5">
+        <v>36</v>
+      </c>
+      <c r="E41" s="5">
         <v>38</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="5">
         <v>40</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="4">
+        <v>22</v>
+      </c>
+      <c r="H41" s="4">
         <v>26</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>31</v>
+      <c r="I41" s="4">
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>40</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>15</v>
+      <c r="C42" s="5">
+        <v>40</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5">
+        <v>38</v>
+      </c>
+      <c r="F42" s="5">
+        <v>39</v>
+      </c>
+      <c r="G42" s="4">
         <v>22</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>21</v>
+      <c r="H42" s="3">
+        <v>17</v>
+      </c>
+      <c r="I42" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
@@ -1512,19 +1389,19 @@
         <v>41</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
+        <v>37</v>
+      </c>
+      <c r="E43" s="5">
+        <v>38</v>
+      </c>
+      <c r="F43" s="5">
         <v>40</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>21</v>
+      <c r="G43" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
@@ -1532,19 +1409,19 @@
         <v>42</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="G44" s="4">
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
@@ -1552,13 +1429,13 @@
         <v>43</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="E45" s="4">
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
@@ -1566,16 +1443,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
@@ -1583,16 +1460,16 @@
         <v>45</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
@@ -1600,16 +1477,16 @@
         <v>46</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
@@ -1617,13 +1494,13 @@
         <v>47</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="E49" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
